--- a/Lab_2/Lab2_Data.xlsx
+++ b/Lab_2/Lab2_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test No</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>PT2</t>
+  </si>
+  <si>
+    <t>Temp (F)</t>
+  </si>
+  <si>
+    <t>Pressure  (kPa)</t>
   </si>
 </sst>
 </file>
@@ -384,14 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,7 +476,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <f t="shared" ref="A4:A10" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -640,6 +647,22 @@
       </c>
       <c r="G10" s="1">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>100.25</v>
       </c>
     </row>
   </sheetData>

--- a/Lab_2/Lab2_Data.xlsx
+++ b/Lab_2/Lab2_Data.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Efficiency vs Re" sheetId="4" r:id="rId1"/>
+    <sheet name="Power Coefficient vs Re" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Area2">Sheet1!$L$7</definedName>
+    <definedName name="beta">Sheet1!$L$8</definedName>
+    <definedName name="Cd">Sheet1!$L$12</definedName>
+    <definedName name="Cd2_">Sheet1!$L$13</definedName>
+    <definedName name="Cd3_">Sheet1!$L$14</definedName>
+    <definedName name="density">Sheet1!$L$4</definedName>
+    <definedName name="density_w">Sheet1!$L$5</definedName>
+    <definedName name="mu">Sheet1!$L$6</definedName>
+    <definedName name="P_static">Sheet1!$L$3</definedName>
+    <definedName name="Re">Sheet1!$L$9</definedName>
+    <definedName name="Re2_">Sheet1!$L$10</definedName>
+    <definedName name="Re3_">Sheet1!$L$11</definedName>
+    <definedName name="temp">Sheet1!$L$2</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Test No</t>
   </si>
@@ -33,29 +50,110 @@
     <t xml:space="preserve">HP </t>
   </si>
   <si>
-    <t>PT1</t>
-  </si>
-  <si>
-    <t>PT2</t>
-  </si>
-  <si>
-    <t>Temp (F)</t>
-  </si>
-  <si>
-    <t>Pressure  (kPa)</t>
+    <t>PT1 (in)</t>
+  </si>
+  <si>
+    <t>PT2 (in)</t>
+  </si>
+  <si>
+    <t>Power Input (ft lb / sec)</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Static Pressure (Pa)</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Temp (K)</t>
+  </si>
+  <si>
+    <t>Air Density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>μ (kg/m s)</t>
+  </si>
+  <si>
+    <t>Power Output (W)</t>
+  </si>
+  <si>
+    <t>Power Input (W)</t>
+  </si>
+  <si>
+    <t>Q (m^3/s)</t>
+  </si>
+  <si>
+    <t>Water Density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>PT1 (m)</t>
+  </si>
+  <si>
+    <t>PT2 (m)</t>
+  </si>
+  <si>
+    <t>A2 (m^2)</t>
+  </si>
+  <si>
+    <t>ΔP1 (Pa)</t>
+  </si>
+  <si>
+    <t>ΔP2 (Pa)</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Cw</t>
+  </si>
+  <si>
+    <t>Cq</t>
+  </si>
+  <si>
+    <t>Re2</t>
+  </si>
+  <si>
+    <t>Re3</t>
+  </si>
+  <si>
+    <t>Cd2</t>
+  </si>
+  <si>
+    <t>Cd3</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,16 +191,753 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Compression</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Efficiency vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3551145133518158E-2"/>
+          <c:y val="1.4117647806135E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.46671442688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X = 2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$30:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.15146627692261169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24866340664051401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30690642829838921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.76358894468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.514662769226117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48929490990351959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53803235044911879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167271040"/>
+        <c:axId val="175870336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167271040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175870336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175870336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>η</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167271040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Power Coefficient </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10599017115383795"/>
+          <c:y val="1.6134454635582857E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.46671442688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7543283335532624E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6091592067524444E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.508425306132502E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X = 2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8267574364567045E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1772531751768856E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2888671592087111E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.76358894468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.6535148729134082E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3500785595087558E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2763790873205791E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146785792"/>
+        <c:axId val="146787712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146785792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146787712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146787712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cw</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146785792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -180,6 +1015,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,6 +1050,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,20 +1226,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B27" sqref="B27:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,13 +1262,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -442,14 +1285,23 @@
         <f>D2*(B2/4000)</f>
         <v>7.8875000000000001E-2</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2">
+        <f>K17*0.0254</f>
+        <v>8.8899999999999986E-3</v>
+      </c>
+      <c r="G2" s="2">
+        <f>L17*0.0254</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="9">
+        <f>(70-32)*(5/9)+273</f>
+        <v>294.11111111111109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -467,14 +1319,22 @@
         <f t="shared" ref="E3:E10" si="0">D3*(B3/4000)</f>
         <v>0.52674999999999994</v>
       </c>
-      <c r="F3" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="2">
+        <f>K18*0.0254</f>
+        <v>3.5559999999999994E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>L18*0.0254</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>100250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A10" si="1">A3+1</f>
         <v>3</v>
@@ -492,14 +1352,23 @@
         <f t="shared" si="0"/>
         <v>1.7774249999999998</v>
       </c>
-      <c r="F4" s="1">
-        <v>3.85</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2">
+        <f>K19*0.0254</f>
+        <v>9.7790000000000002E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f>L19*0.0254</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10">
+        <f>P_static/(287*temp)</f>
+        <v>1.1876570543998928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -517,14 +1386,22 @@
         <f t="shared" si="0"/>
         <v>7.8125E-2</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="2">
+        <f>K20*0.0254</f>
+        <v>8.8899999999999986E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <f>L20*0.0254</f>
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -542,14 +1419,23 @@
         <f t="shared" si="0"/>
         <v>0.49080000000000007</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.55</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="2">
+        <f>K21*0.0254</f>
+        <v>3.9370000000000002E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f>L21*0.0254</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <f>1.983*10^-5</f>
+        <v>1.9830000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -567,14 +1453,23 @@
         <f t="shared" si="0"/>
         <v>1.6280999999999999</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="2">
+        <f>K22*0.0254</f>
+        <v>9.9059999999999995E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f>L22*0.0254</f>
+        <v>3.3020000000000001E-2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="8">
+        <f>(PI()*18^2)/(4*144)*0.0254</f>
+        <v>4.4885505038164165E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -592,14 +1487,22 @@
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="2">
+        <f>K23*0.0254</f>
+        <v>8.8899999999999986E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <f>L23*0.0254</f>
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -617,14 +1520,22 @@
         <f t="shared" si="0"/>
         <v>0.41795000000000004</v>
       </c>
-      <c r="F9" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="2">
+        <f>K24*0.0254</f>
+        <v>4.3179999999999996E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f>L24*0.0254</f>
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="14">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -642,27 +1553,691 @@
         <f t="shared" si="0"/>
         <v>1.1325000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
+        <f>K25*0.0254</f>
+        <v>9.1439999999999994E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <f>L25*0.0254</f>
+        <v>4.1909999999999996E-2</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11">
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="8">
+        <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
+        <v>0.63036487877356873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8">
+        <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re2_)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
+        <v>0.61787500816457053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="8">
+        <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re3_)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
+        <v>0.61338260411153156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.8875000000000001E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16*550</f>
+        <v>43.381250000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16*1.355818</f>
+        <v>58.817079612500002</v>
+      </c>
+      <c r="E16" s="5">
+        <f>9.81*F2*density_w</f>
+        <v>87.210899999999995</v>
+      </c>
+      <c r="F16" s="5">
+        <f>9.81*G2*density_w</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f>Cd*Area2*SQRT((2*E16)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.35413376908105576</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>A16+1</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.52674999999999994</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:C24" si="2">B17*550</f>
+        <v>289.71249999999998</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:D24" si="3">C17*1.355818</f>
+        <v>392.79742232499996</v>
+      </c>
+      <c r="E17" s="5">
+        <f>9.81*F3*density_w</f>
+        <v>348.84359999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f>9.81*G3*density_w</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>Cd2_*Area2*SQRT((2*E17)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.69423412639366167</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:H24" si="4">G17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" ref="A18:A24" si="5">A17+1</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.7774249999999998</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="2"/>
+        <v>977.5837499999999</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="3"/>
+        <v>1325.4256447574999</v>
+      </c>
+      <c r="E18" s="5">
+        <f>9.81*F4*density_w</f>
+        <v>959.31990000000008</v>
+      </c>
+      <c r="F18" s="5">
+        <f>9.81*G4*density_w</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f>Cd3_*Area2*SQRT((2*E18)/density)*SQRT(1/(1-beta^4))</f>
+        <v>1.1428865745741883</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="2"/>
+        <v>42.96875</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="3"/>
+        <v>58.257804687499998</v>
+      </c>
+      <c r="E19" s="5">
+        <f>9.81*F5*density_w</f>
+        <v>87.210899999999995</v>
+      </c>
+      <c r="F19" s="5">
+        <f>9.81*G5*density_w</f>
+        <v>24.917400000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <f>Cd*Area2*SQRT((2*E19)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.35413376908105576</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="4"/>
+        <v>8.8240927777003009</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.49080000000000007</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="2"/>
+        <v>269.94000000000005</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="3"/>
+        <v>365.98951092000004</v>
+      </c>
+      <c r="E20" s="5">
+        <f>9.81*F6*density_w</f>
+        <v>386.21970000000005</v>
+      </c>
+      <c r="F20" s="5">
+        <f>9.81*G6*density_w</f>
+        <v>124.587</v>
+      </c>
+      <c r="G20" s="4">
+        <f>Cd2_*Area2*SQRT((2*E20)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.73047909155901347</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="4"/>
+        <v>91.00819858006281</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.6280999999999999</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="2"/>
+        <v>895.45499999999993</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="3"/>
+        <v>1214.07400719</v>
+      </c>
+      <c r="E21" s="5">
+        <f>9.81*F7*density_w</f>
+        <v>971.7786000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <f>9.81*G7*density_w</f>
+        <v>323.92619999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <f>Cd3_*Area2*SQRT((2*E21)/density)*SQRT(1/(1-beta^4))</f>
+        <v>1.1502839759074623</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="4"/>
+        <v>372.6071172365958</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="2"/>
+        <v>8.59375</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="3"/>
+        <v>11.651560937499999</v>
+      </c>
+      <c r="E22" s="5">
+        <f>9.81*F8*density_w</f>
+        <v>87.210899999999995</v>
+      </c>
+      <c r="F22" s="5">
+        <f>9.81*G8*density_w</f>
+        <v>49.834800000000008</v>
+      </c>
+      <c r="G22" s="4">
+        <f>Cd*Area2*SQRT((2*E22)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.35413376908105576</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="4"/>
+        <v>17.648185555400602</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.41795000000000004</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="2"/>
+        <v>229.87250000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="3"/>
+        <v>311.66527320500006</v>
+      </c>
+      <c r="E23" s="5">
+        <f>9.81*F9*density_w</f>
+        <v>423.59579999999994</v>
+      </c>
+      <c r="F23" s="5">
+        <f>9.81*G9*density_w</f>
+        <v>199.33920000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <f>Cd2_*Area2*SQRT((2*E23)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.76500874776710404</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="4"/>
+        <v>152.49623177289632</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.1325000000000001</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
+        <v>622.875</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="3"/>
+        <v>844.50513675000002</v>
+      </c>
+      <c r="E24" s="5">
+        <f>9.81*F10*density_w</f>
+        <v>897.02639999999997</v>
+      </c>
+      <c r="F24" s="5">
+        <f>9.81*G10*density_w</f>
+        <v>411.13709999999998</v>
+      </c>
+      <c r="G24" s="4">
+        <f>Cd3_*Area2*SQRT((2*E24)/density)*SQRT(1/(1-beta^4))</f>
+        <v>1.1051570964818234</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="4"/>
+        <v>454.37108369195704</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
         <v>3.6</v>
       </c>
-      <c r="G10" s="1">
+      <c r="L25" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11">
+        <f>D16/(density*((2*PI()*B2)/60)^3*(18*0.0254))</f>
+        <v>3.7543283335532624E-4</v>
+      </c>
+      <c r="C27" s="2">
+        <f>E16/(density*((2*PI()*B2)/60)^2*(18*0.0254)^2)</f>
+        <v>8.0454681102905851E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f>G16/(((2*PI()*B2)/60)*(18*0.0254)^3)</f>
+        <v>5.6077765382437458E-2</v>
+      </c>
+      <c r="E27" s="13">
+        <f>(density*(G16/Area2)*(18*0.0254))/mu</f>
+        <v>216040.80447566588</v>
+      </c>
+      <c r="F27" s="1">
+        <f>H16/D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>A27+1</f>
+        <v>2</v>
+      </c>
+      <c r="B28" s="11">
+        <f>D17/(density*((2*PI()*B3)/60)^3*(18*0.0254))</f>
+        <v>3.6091592067524444E-4</v>
+      </c>
+      <c r="C28" s="2">
+        <f>E17/(density*((2*PI()*B3)/60)^2*(18*0.0254)^2)</f>
+        <v>8.8392833088525802E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D35" si="6">G17/(((2*PI()*B3)/60)*(18*0.0254)^3)</f>
+        <v>5.7614551883381562E-2</v>
+      </c>
+      <c r="E28" s="13">
+        <f>(density*(G17/Area2)*(18*0.0254))/mu</f>
+        <v>423520.46671442688</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F35" si="7">H17/D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" ref="A29:A35" si="8">A28+1</f>
+        <v>3</v>
+      </c>
+      <c r="B29" s="11">
+        <f>D18/(density*((2*PI()*B4)/60)^3*(18*0.0254))</f>
+        <v>3.508425306132502E-4</v>
+      </c>
+      <c r="C29" s="2">
+        <f>E18/(density*((2*PI()*B4)/60)^2*(18*0.0254)^2)</f>
+        <v>0.1060301520279079</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="6"/>
+        <v>6.2642514085770221E-2</v>
+      </c>
+      <c r="E29" s="13">
+        <f>(density*(G18/Area2)*(18*0.0254))/mu</f>
+        <v>697222.79136540578</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="11">
+        <f>D19/(density*((2*PI()*B5)/60)^3*(18*0.0254))</f>
+        <v>3.8267574364567045E-4</v>
+      </c>
+      <c r="C30" s="2">
+        <f>E19/(density*((2*PI()*B5)/60)^2*(18*0.0254)^2)</f>
+        <v>8.2006825683492088E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="6"/>
+        <v>5.6616111930108862E-2</v>
+      </c>
+      <c r="E30" s="13">
+        <f>(density*(G19/Area2)*(18*0.0254))/mu</f>
+        <v>216040.80447566588</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="7"/>
+        <v>0.15146627692261169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="11">
+        <f>D20/(density*((2*PI()*B6)/60)^3*(18*0.0254))</f>
+        <v>3.1772531751768856E-4</v>
+      </c>
+      <c r="C31" s="2">
+        <f>E20/(density*((2*PI()*B6)/60)^2*(18*0.0254)^2)</f>
+        <v>9.4228996183025299E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="6"/>
+        <v>5.948616122058447E-2</v>
+      </c>
+      <c r="E31" s="13">
+        <f>(density*(G20/Area2)*(18*0.0254))/mu</f>
+        <v>445631.8610974992</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="7"/>
+        <v>0.24866340664051401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="11">
+        <f>D21/(density*((2*PI()*B7)/60)^3*(18*0.0254))</f>
+        <v>3.2888671592087111E-4</v>
+      </c>
+      <c r="C32" s="2">
+        <f>E21/(density*((2*PI()*B7)/60)^2*(18*0.0254)^2)</f>
+        <v>0.10907606579332753</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="6"/>
+        <v>6.3535904928513826E-2</v>
+      </c>
+      <c r="E32" s="13">
+        <f>(density*(G21/Area2)*(18*0.0254))/mu</f>
+        <v>701735.60735360405</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="7"/>
+        <v>0.30690642829838921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="B33" s="11">
+        <f>D22/(density*((2*PI()*B8)/60)^3*(18*0.0254))</f>
+        <v>7.6535148729134082E-5</v>
+      </c>
+      <c r="C33" s="2">
+        <f>E22/(density*((2*PI()*B8)/60)^2*(18*0.0254)^2)</f>
+        <v>8.2006825683492088E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="6"/>
+        <v>5.6616111930108862E-2</v>
+      </c>
+      <c r="E33" s="13">
+        <f>(density*(G22/Area2)*(18*0.0254))/mu</f>
+        <v>216040.80447566588</v>
+      </c>
+      <c r="F33" s="3">
+        <f>H22/D22</f>
+        <v>1.514662769226117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>100.25</v>
+      <c r="B34" s="11">
+        <f>D23/(density*((2*PI()*B9)/60)^3*(18*0.0254))</f>
+        <v>2.3500785595087558E-4</v>
+      </c>
+      <c r="C34" s="2">
+        <f>E23/(density*((2*PI()*B9)/60)^2*(18*0.0254)^2)</f>
+        <v>9.4082527505454927E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="6"/>
+        <v>5.9439910872221877E-2</v>
+      </c>
+      <c r="E34" s="13">
+        <f>(density*(G23/Area2)*(18*0.0254))/mu</f>
+        <v>466696.82399223116</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="7"/>
+        <v>0.48929490990351959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="11">
+        <f>D24/(density*((2*PI()*B10)/60)^3*(18*0.0254))</f>
+        <v>2.2763790873205791E-4</v>
+      </c>
+      <c r="C35" s="2">
+        <f>E24/(density*((2*PI()*B10)/60)^2*(18*0.0254)^2)</f>
+        <v>0.10035247916010605</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="6"/>
+        <v>6.0942257835026686E-2</v>
+      </c>
+      <c r="E35" s="13">
+        <f>(density*(G24/Area2)*(18*0.0254))/mu</f>
+        <v>674205.76358894468</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="7"/>
+        <v>0.53803235044911879</v>
       </c>
     </row>
   </sheetData>
@@ -671,24 +2246,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab_2/Lab2_Data.xlsx
+++ b/Lab_2/Lab2_Data.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency vs Re" sheetId="4" r:id="rId1"/>
     <sheet name="Power Coefficient vs Re" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Pressure Coefficient vs Re" sheetId="6" r:id="rId3"/>
+    <sheet name="Flow Coefficient vs Re" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Area2">Sheet1!$L$7</definedName>
@@ -864,6 +866,645 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Pressure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Coefficient vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5746268321346972E-2"/>
+          <c:y val="1.6134454635582857E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.46671442688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0454681102905851E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8392833088525802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1060301520279079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X = 2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2006825683492088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4228996183025299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10907606579332753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.76358894468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2006825683492088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4082527505454927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10035247916010605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167236352"/>
+        <c:axId val="175979136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167236352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175979136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175979136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167236352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Flow Coefficient</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.550236548885598E-2"/>
+          <c:y val="1.4117647806135E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.46671442688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6077765382437458E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7614551883381562E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2642514085770221E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X =  2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6616111930108862E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.948616122058447E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3535904928513826E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.76358894468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6616111930108862E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9439910872221877E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0942257835026686E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146975744"/>
+        <c:axId val="147461248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146975744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147461248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="147461248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cq</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146975744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -880,6 +1521,28 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -914,6 +1577,60 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1229,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab_2/Lab2_Data.xlsx
+++ b/Lab_2/Lab2_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="9210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Efficiency vs Re" sheetId="4" r:id="rId1"/>
@@ -24,10 +24,13 @@
     <definedName name="density">Sheet1!$L$4</definedName>
     <definedName name="density_w">Sheet1!$L$5</definedName>
     <definedName name="mu">Sheet1!$L$6</definedName>
+    <definedName name="N_error">Sheet1!$L$28</definedName>
     <definedName name="P_static">Sheet1!$L$3</definedName>
+    <definedName name="Pressure_error">Sheet1!$L$30</definedName>
     <definedName name="Re">Sheet1!$L$9</definedName>
     <definedName name="Re2_">Sheet1!$L$10</definedName>
     <definedName name="Re3_">Sheet1!$L$11</definedName>
+    <definedName name="Scale_error">Sheet1!$L$29</definedName>
     <definedName name="temp">Sheet1!$L$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Test No</t>
   </si>
@@ -131,19 +134,83 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>N_error</t>
+  </si>
+  <si>
+    <t>Scale_error</t>
+  </si>
+  <si>
+    <t>Pressure_error</t>
+  </si>
+  <si>
+    <t>Cp Uncertainty (±)</t>
+  </si>
+  <si>
+    <t>Cq Uncertainty (±)</t>
+  </si>
+  <si>
+    <t>η Uncertainty (±)</t>
+  </si>
+  <si>
+    <t>Re Uncertainty (±)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cw Uncertainty (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N Uncertainty (± RPM) </t>
+  </si>
+  <si>
+    <t>Scale Uncertainty (± lbf)</t>
+  </si>
+  <si>
+    <t>HP Uncertainty (±hp)</t>
+  </si>
+  <si>
+    <t>Q Uncertainty (±m^3/s)</t>
+  </si>
+  <si>
+    <t>PT1 Uncertainty (± in h20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,18 +219,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -193,22 +275,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,10 +378,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423520.46671442688</c:v>
+                  <c:v>423520.4667144267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>697222.79136540578</c:v>
+                  <c:v>697222.79136540589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,13 +437,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15146627692261169</c:v>
+                  <c:v>0.13850076361803615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24866340664051401</c:v>
+                  <c:v>0.22737781903208601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30690642829838921</c:v>
+                  <c:v>0.28063523803604706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,10 +466,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466696.82399223116</c:v>
+                  <c:v>466696.82399223128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674205.76358894468</c:v>
+                  <c:v>674205.7635889448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,13 +481,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.514662769226117</c:v>
+                  <c:v>1.3850076361803616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48929490990351959</c:v>
+                  <c:v>0.44741126561577843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53803235044911879</c:v>
+                  <c:v>0.49197678125067434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,10 +700,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423520.46671442688</c:v>
+                  <c:v>423520.4667144267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>697222.79136540578</c:v>
+                  <c:v>697222.79136540589</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>216040.80447566588</c:v>
@@ -712,10 +791,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466696.82399223116</c:v>
+                  <c:v>466696.82399223128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674205.76358894468</c:v>
+                  <c:v>674205.7635889448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,10 +1021,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423520.46671442688</c:v>
+                  <c:v>423520.4667144267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>697222.79136540578</c:v>
+                  <c:v>697222.79136540589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,10 +1109,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466696.82399223116</c:v>
+                  <c:v>466696.82399223128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674205.76358894468</c:v>
+                  <c:v>674205.7635889448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,10 +1339,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423520.46671442688</c:v>
+                  <c:v>423520.4667144267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>697222.79136540578</c:v>
+                  <c:v>697222.79136540589</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>216040.80447566588</c:v>
@@ -1278,13 +1357,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.6077765382437458E-2</c:v>
+                  <c:v>5.1277508665700813E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7614551883381562E-2</c:v>
+                  <c:v>5.268274624216409E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2642514085770221E-2</c:v>
+                  <c:v>5.7280314880028292E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,13 +1401,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.6616111930108862E-2</c:v>
+                  <c:v>5.1769772748891545E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.948616122058447E-2</c:v>
+                  <c:v>5.4394145820102442E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3535904928513826E-2</c:v>
+                  <c:v>5.8097231466633044E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,10 +1430,10 @@
                   <c:v>216040.80447566588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466696.82399223116</c:v>
+                  <c:v>466696.82399223128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674205.76358894468</c:v>
+                  <c:v>674205.7635889448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,13 +1445,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.6616111930108862E-2</c:v>
+                  <c:v>5.1769772748891545E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9439910872221877E-2</c:v>
+                  <c:v>5.4351854501559688E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0942257835026686E-2</c:v>
+                  <c:v>5.5725600564348408E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,7 +1621,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1944,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,32 +2039,40 @@
     <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2010,15 +2097,45 @@
         <f>L17*0.0254</f>
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <f>(70-32)*(5/9)+273</f>
         <v>294.11111111111109</v>
       </c>
+      <c r="N2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -2044,14 +2161,54 @@
         <f>L18*0.0254</f>
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>100250</v>
       </c>
+      <c r="N3" s="8">
+        <f>N_error/B2</f>
+        <v>7.9239302694136295E-4</v>
+      </c>
+      <c r="O3" s="2">
+        <f>Scale_error/D2</f>
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="2">
+        <f>E2*(N3+O3)</f>
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>G16*((0.05/9)*2*R3^0.5)</f>
+        <v>4.7597054098993171E-4</v>
+      </c>
+      <c r="R3" s="1">
+        <f>Pressure_error*K17</f>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="S3" s="6">
+        <f>B27*(P3+R3+N3*3+(0.5/18)*3)</f>
+        <v>4.1733306132877039E-5</v>
+      </c>
+      <c r="T3" s="2">
+        <f>C27*(R3+R3+N3*2+(0.05/18)*2)</f>
+        <v>3.3903877457548714E-3</v>
+      </c>
+      <c r="U3" s="8">
+        <f>D27*(Q3+N3+(0.05/9)*3)</f>
+        <v>9.1966366827420304E-4</v>
+      </c>
+      <c r="V3" s="9">
+        <f>F27*(2*(P3/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <f>E27*(Q3+(0.05/9)*2)</f>
+        <v>2503.2824416451367</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A10" si="1">A3+1</f>
         <v>3</v>
@@ -2077,15 +2234,55 @@
         <f>L19*0.0254</f>
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="2">
         <f>P_static/(287*temp)</f>
         <v>1.1876570543998928</v>
       </c>
+      <c r="N4" s="8">
+        <f>N_error/B3</f>
+        <v>4.1528239202657808E-4</v>
+      </c>
+      <c r="O4" s="2">
+        <f>Scale_error/D3</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P11" si="2">E3*(N4+O4)</f>
+        <v>1.5268749999999999E-2</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" ref="Q4:Q11" si="3">G17*((0.05/9)*2*R4^0.5)</f>
+        <v>1.8661591836932796E-3</v>
+      </c>
+      <c r="R4" s="1">
+        <f>Pressure_error*K18</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" ref="S4:S11" si="4">B28*(P4+R4+N4*3+(0.5/18)*3)</f>
+        <v>6.1300822214589747E-5</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T11" si="5">C28*(R4+R4+N4*2+(0.05/18)*2)</f>
+        <v>1.2939483901655885E-2</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" ref="U4:U11" si="6">D28*(Q4+N4+(0.05/9)*3)</f>
+        <v>9.9823837830270712E-4</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" ref="V4:V11" si="7">F28*(2*(P4/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" ref="W4:W11" si="8">E28*(Q4+(0.05/9)*2)</f>
+        <v>5496.139571934822</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2111,14 +2308,54 @@
         <f>L20*0.0254</f>
         <v>2.5400000000000002E-3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>1000</v>
       </c>
+      <c r="N5" s="8">
+        <f>N_error/B4</f>
+        <v>2.7427317608337906E-4</v>
+      </c>
+      <c r="O5" s="2">
+        <f>Scale_error/D4</f>
+        <v>1.2820512820512822E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3275000000000001E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="3"/>
+        <v>5.094624807284274E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f>Pressure_error*K19</f>
+        <v>0.1925</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0522860467970751E-4</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1468827384014181E-2</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2622040817131862E-3</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="8"/>
+        <v>11299.008433154251</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2144,15 +2381,55 @@
         <f>L21*0.0254</f>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f>1.983*10^-5</f>
         <v>1.9830000000000002E-5</v>
       </c>
+      <c r="N6" s="8">
+        <f>N_error/B5</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O6" s="2">
+        <f>Scale_error/D5</f>
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8750000000000001E-3</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7597054098993171E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <f>Pressure_error*K20</f>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2518464083564365E-5</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4570432960352106E-3</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="6"/>
+        <v>9.2888625075618803E-4</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="7"/>
+        <v>2.1813870269840695E-5</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="8"/>
+        <v>2503.2824416451367</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2178,15 +2455,55 @@
         <f>L22*0.0254</f>
         <v>3.3020000000000001E-2</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="8">
-        <f>(PI()*18^2)/(4*144)*0.0254</f>
-        <v>4.4885505038164165E-2</v>
+      <c r="L7" s="3">
+        <f>((PI()*9^2)/4)*0.00064516</f>
+        <v>4.1043305806897315E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <f>N_error/B6</f>
+        <v>4.0749796251018743E-4</v>
+      </c>
+      <c r="O7" s="2">
+        <f>Scale_error/D6</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5537500000000003E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>2.0661048105175598E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <f>Pressure_error*K21</f>
+        <v>7.7500000000000013E-2</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="4"/>
+        <v>5.6425896280271744E-5</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5205785079515881E-2</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0411186069387885E-3</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>7.0657657264220735E-5</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="8"/>
+        <v>5872.1872552389832</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2212,14 +2529,54 @@
         <f>L23*0.0254</f>
         <v>5.0800000000000003E-3</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0.5</v>
       </c>
+      <c r="N8" s="8">
+        <f>N_error/B7</f>
+        <v>2.7639579878385847E-4</v>
+      </c>
+      <c r="O8" s="2">
+        <f>Scale_error/D7</f>
+        <v>1.388888888888889E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.30625E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="3"/>
+        <v>5.1607887658204326E-3</v>
+      </c>
+      <c r="R8" s="1">
+        <f>Pressure_error*K22</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="4"/>
+        <v>9.9397794536903254E-5</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="5"/>
+        <v>4.3205940135360291E-2</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2841725612871707E-3</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="7"/>
+        <v>1.2944300354412672E-4</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="8"/>
+        <v>11418.571542935591</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2245,14 +2602,54 @@
         <f>L24*0.0254</f>
         <v>2.0320000000000001E-2</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="9">
         <v>210000</v>
       </c>
+      <c r="N9" s="8">
+        <f>N_error/B8</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O9" s="2">
+        <f>Scale_error/D8</f>
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8250000000000004E-3</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7597054098993171E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <f>Pressure_error*K23</f>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="4"/>
+        <v>8.499866059276416E-6</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4570432960352106E-3</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="6"/>
+        <v>9.2888625075618803E-4</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="7"/>
+        <v>2.1675369506222661E-4</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="8"/>
+        <v>2503.2824416451367</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2278,75 +2675,155 @@
         <f>L25*0.0254</f>
         <v>4.1909999999999996E-2</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>430000</v>
       </c>
+      <c r="N10" s="8">
+        <f>N_error/B9</f>
+        <v>3.8880248833592535E-4</v>
+      </c>
+      <c r="O10" s="2">
+        <f>Scale_error/D9</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6237500000000002E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="3"/>
+        <v>2.2660504373418402E-3</v>
+      </c>
+      <c r="R10" s="1">
+        <f>Pressure_error*K24</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="4"/>
+        <v>4.3649710730249639E-5</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6589869425897085E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0501604216321394E-3</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="7"/>
+        <v>1.4529680850872408E-4</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="8"/>
+        <v>6243.078808693991</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K11" s="7" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>690000</v>
       </c>
+      <c r="N11" s="8">
+        <f>N_error/B10</f>
+        <v>2.7593818984547461E-4</v>
+      </c>
+      <c r="O11" s="2">
+        <f>Scale_error/D10</f>
+        <v>0.02</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2962500000000004E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7638050146034767E-3</v>
+      </c>
+      <c r="R11" s="1">
+        <f>Pressure_error*K25</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="4"/>
+        <v>6.5360226756128994E-5</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="5"/>
+        <v>3.6739788433641771E-2</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2096027261638183E-3</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="7"/>
+        <v>2.2594033678937224E-4</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="8"/>
+        <v>10702.959948447857</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="3">
         <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
         <v>0.63036487877356873</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="3">
         <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re2_)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
         <v>0.61787500816457053</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="3">
         <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re3_)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
         <v>0.61338260411153156</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2371,7 +2848,7 @@
       </c>
       <c r="G16" s="4">
         <f>Cd*Area2*SQRT((2*E16)/density)*SQRT(1/(1-beta^4))</f>
-        <v>0.35413376908105576</v>
+        <v>0.3238199184477174</v>
       </c>
       <c r="H16" s="1">
         <f>G16*F16</f>
@@ -2393,11 +2870,11 @@
         <v>0.52674999999999994</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" ref="C17:C24" si="2">B17*550</f>
+        <f t="shared" ref="C17:C24" si="9">B17*550</f>
         <v>289.71249999999998</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">C17*1.355818</f>
+        <f t="shared" ref="D17:D24" si="10">C17*1.355818</f>
         <v>392.79742232499996</v>
       </c>
       <c r="E17" s="5">
@@ -2410,10 +2887,10 @@
       </c>
       <c r="G17" s="4">
         <f>Cd2_*Area2*SQRT((2*E17)/density)*SQRT(1/(1-beta^4))</f>
-        <v>0.69423412639366167</v>
+        <v>0.63480768517436414</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:H24" si="4">G17*F17</f>
+        <f t="shared" ref="H17:H24" si="11">G17*F17</f>
         <v>0</v>
       </c>
       <c r="K17" s="1">
@@ -2425,18 +2902,18 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:A24" si="5">A17+1</f>
+        <f t="shared" ref="A18:A24" si="12">A17+1</f>
         <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>1.7774249999999998</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>977.5837499999999</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1325.4256447574999</v>
       </c>
       <c r="E18" s="5">
@@ -2449,10 +2926,10 @@
       </c>
       <c r="G18" s="4">
         <f>Cd3_*Area2*SQRT((2*E18)/density)*SQRT(1/(1-beta^4))</f>
-        <v>1.1428865745741883</v>
+        <v>1.0450554837906378</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
@@ -2464,18 +2941,18 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>7.8125E-2</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>42.96875</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>58.257804687499998</v>
       </c>
       <c r="E19" s="5">
@@ -2488,11 +2965,11 @@
       </c>
       <c r="G19" s="4">
         <f>Cd*Area2*SQRT((2*E19)/density)*SQRT(1/(1-beta^4))</f>
-        <v>0.35413376908105576</v>
+        <v>0.3238199184477174</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="4"/>
-        <v>8.8240927777003009</v>
+        <f t="shared" si="11"/>
+        <v>8.0687504359291555</v>
       </c>
       <c r="K19" s="1">
         <v>3.85</v>
@@ -2503,18 +2980,18 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>0.49080000000000007</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>269.94000000000005</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>365.98951092000004</v>
       </c>
       <c r="E20" s="5">
@@ -2527,11 +3004,11 @@
       </c>
       <c r="G20" s="4">
         <f>Cd2_*Area2*SQRT((2*E20)/density)*SQRT(1/(1-beta^4))</f>
-        <v>0.73047909155901347</v>
+        <v>0.66795008132156197</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="4"/>
-        <v>91.00819858006281</v>
+        <f t="shared" si="11"/>
+        <v>83.21789678160944</v>
       </c>
       <c r="K20" s="1">
         <v>0.35</v>
@@ -2542,18 +3019,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>1.6280999999999999</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>895.45499999999993</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1214.07400719</v>
       </c>
       <c r="E21" s="5">
@@ -2566,11 +3043,11 @@
       </c>
       <c r="G21" s="4">
         <f>Cd3_*Area2*SQRT((2*E21)/density)*SQRT(1/(1-beta^4))</f>
-        <v>1.1502839759074623</v>
+        <v>1.0518196675697835</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="4"/>
-        <v>372.6071172365958</v>
+        <f t="shared" si="11"/>
+        <v>340.71194800114318</v>
       </c>
       <c r="K21" s="1">
         <v>1.55</v>
@@ -2581,18 +3058,18 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>1.5625E-2</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.59375</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>11.651560937499999</v>
       </c>
       <c r="E22" s="5">
@@ -2605,11 +3082,11 @@
       </c>
       <c r="G22" s="4">
         <f>Cd*Area2*SQRT((2*E22)/density)*SQRT(1/(1-beta^4))</f>
-        <v>0.35413376908105576</v>
+        <v>0.3238199184477174</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="4"/>
-        <v>17.648185555400602</v>
+        <f t="shared" si="11"/>
+        <v>16.137500871858311</v>
       </c>
       <c r="K22" s="1">
         <v>3.9</v>
@@ -2620,18 +3097,18 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>0.41795000000000004</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>229.87250000000003</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>311.66527320500006</v>
       </c>
       <c r="E23" s="5">
@@ -2644,11 +3121,11 @@
       </c>
       <c r="G23" s="4">
         <f>Cd2_*Area2*SQRT((2*E23)/density)*SQRT(1/(1-beta^4))</f>
-        <v>0.76500874776710404</v>
+        <v>0.69952399895824002</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="4"/>
-        <v>152.49623177289632</v>
+        <f t="shared" si="11"/>
+        <v>139.44255433313643</v>
       </c>
       <c r="K23" s="1">
         <v>0.35</v>
@@ -2659,18 +3136,18 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>1.1325000000000001</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>622.875</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>844.50513675000002</v>
       </c>
       <c r="E24" s="5">
@@ -2683,11 +3160,11 @@
       </c>
       <c r="G24" s="4">
         <f>Cd3_*Area2*SQRT((2*E24)/density)*SQRT(1/(1-beta^4))</f>
-        <v>1.1051570964818234</v>
+        <v>1.0105556490229795</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="4"/>
-        <v>454.37108369195704</v>
+        <f t="shared" si="11"/>
+        <v>415.47691892792557</v>
       </c>
       <c r="K24" s="1">
         <v>1.7</v>
@@ -2705,22 +3182,22 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2728,7 +3205,7 @@
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="7">
         <f>D16/(density*((2*PI()*B2)/60)^3*(18*0.0254))</f>
         <v>3.7543283335532624E-4</v>
       </c>
@@ -2738,9 +3215,9 @@
       </c>
       <c r="D27" s="3">
         <f>G16/(((2*PI()*B2)/60)*(18*0.0254)^3)</f>
-        <v>5.6077765382437458E-2</v>
-      </c>
-      <c r="E27" s="13">
+        <v>5.1277508665700813E-2</v>
+      </c>
+      <c r="E27" s="9">
         <f>(density*(G16/Area2)*(18*0.0254))/mu</f>
         <v>216040.80447566588</v>
       </c>
@@ -2754,7 +3231,7 @@
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <f>D17/(density*((2*PI()*B3)/60)^3*(18*0.0254))</f>
         <v>3.6091592067524444E-4</v>
       </c>
@@ -2763,24 +3240,30 @@
         <v>8.8392833088525802E-2</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:D35" si="6">G17/(((2*PI()*B3)/60)*(18*0.0254)^3)</f>
-        <v>5.7614551883381562E-2</v>
-      </c>
-      <c r="E28" s="13">
+        <f t="shared" ref="D28:D35" si="13">G17/(((2*PI()*B3)/60)*(18*0.0254)^3)</f>
+        <v>5.268274624216409E-2</v>
+      </c>
+      <c r="E28" s="9">
         <f>(density*(G17/Area2)*(18*0.0254))/mu</f>
-        <v>423520.46671442688</v>
+        <v>423520.4667144267</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28:F35" si="7">H17/D17</f>
+        <f t="shared" ref="F28:F35" si="14">H17/D17</f>
         <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" ref="A29:A35" si="8">A28+1</f>
+        <f t="shared" ref="A29:A35" si="15">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <f>D18/(density*((2*PI()*B4)/60)^3*(18*0.0254))</f>
         <v>3.508425306132502E-4</v>
       </c>
@@ -2789,24 +3272,30 @@
         <v>0.1060301520279079</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="6"/>
-        <v>6.2642514085770221E-2</v>
-      </c>
-      <c r="E29" s="13">
+        <f t="shared" si="13"/>
+        <v>5.7280314880028292E-2</v>
+      </c>
+      <c r="E29" s="9">
         <f>(density*(G18/Area2)*(18*0.0254))/mu</f>
-        <v>697222.79136540578</v>
+        <v>697222.79136540589</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <f>D19/(density*((2*PI()*B5)/60)^3*(18*0.0254))</f>
         <v>3.8267574364567045E-4</v>
       </c>
@@ -2815,24 +3304,30 @@
         <v>8.2006825683492088E-2</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="6"/>
-        <v>5.6616111930108862E-2</v>
-      </c>
-      <c r="E30" s="13">
+        <f t="shared" si="13"/>
+        <v>5.1769772748891545E-2</v>
+      </c>
+      <c r="E30" s="9">
         <f>(density*(G19/Area2)*(18*0.0254))/mu</f>
         <v>216040.80447566588</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="7"/>
-        <v>0.15146627692261169</v>
+        <f t="shared" si="14"/>
+        <v>0.13850076361803615</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <f>D20/(density*((2*PI()*B6)/60)^3*(18*0.0254))</f>
         <v>3.1772531751768856E-4</v>
       </c>
@@ -2841,24 +3336,24 @@
         <v>9.4228996183025299E-2</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="6"/>
-        <v>5.948616122058447E-2</v>
-      </c>
-      <c r="E31" s="13">
+        <f t="shared" si="13"/>
+        <v>5.4394145820102442E-2</v>
+      </c>
+      <c r="E31" s="9">
         <f>(density*(G20/Area2)*(18*0.0254))/mu</f>
         <v>445631.8610974992</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="7"/>
-        <v>0.24866340664051401</v>
+        <f t="shared" si="14"/>
+        <v>0.22737781903208601</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="7">
         <f>D21/(density*((2*PI()*B7)/60)^3*(18*0.0254))</f>
         <v>3.2888671592087111E-4</v>
       </c>
@@ -2867,24 +3362,24 @@
         <v>0.10907606579332753</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="6"/>
-        <v>6.3535904928513826E-2</v>
-      </c>
-      <c r="E32" s="13">
+        <f t="shared" si="13"/>
+        <v>5.8097231466633044E-2</v>
+      </c>
+      <c r="E32" s="9">
         <f>(density*(G21/Area2)*(18*0.0254))/mu</f>
         <v>701735.60735360405</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="7"/>
-        <v>0.30690642829838921</v>
+        <f t="shared" si="14"/>
+        <v>0.28063523803604706</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="7">
         <f>D22/(density*((2*PI()*B8)/60)^3*(18*0.0254))</f>
         <v>7.6535148729134082E-5</v>
       </c>
@@ -2893,24 +3388,24 @@
         <v>8.2006825683492088E-2</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="6"/>
-        <v>5.6616111930108862E-2</v>
-      </c>
-      <c r="E33" s="13">
+        <f t="shared" si="13"/>
+        <v>5.1769772748891545E-2</v>
+      </c>
+      <c r="E33" s="9">
         <f>(density*(G22/Area2)*(18*0.0254))/mu</f>
         <v>216040.80447566588</v>
       </c>
       <c r="F33" s="3">
         <f>H22/D22</f>
-        <v>1.514662769226117</v>
+        <v>1.3850076361803616</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="7">
         <f>D23/(density*((2*PI()*B9)/60)^3*(18*0.0254))</f>
         <v>2.3500785595087558E-4</v>
       </c>
@@ -2919,24 +3414,24 @@
         <v>9.4082527505454927E-2</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="6"/>
-        <v>5.9439910872221877E-2</v>
-      </c>
-      <c r="E34" s="13">
+        <f t="shared" si="13"/>
+        <v>5.4351854501559688E-2</v>
+      </c>
+      <c r="E34" s="9">
         <f>(density*(G23/Area2)*(18*0.0254))/mu</f>
-        <v>466696.82399223116</v>
+        <v>466696.82399223128</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="7"/>
-        <v>0.48929490990351959</v>
+        <f t="shared" si="14"/>
+        <v>0.44741126561577843</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="7">
         <f>D24/(density*((2*PI()*B10)/60)^3*(18*0.0254))</f>
         <v>2.2763790873205791E-4</v>
       </c>
@@ -2945,16 +3440,16 @@
         <v>0.10035247916010605</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="6"/>
-        <v>6.0942257835026686E-2</v>
-      </c>
-      <c r="E35" s="13">
+        <f t="shared" si="13"/>
+        <v>5.5725600564348408E-2</v>
+      </c>
+      <c r="E35" s="9">
         <f>(density*(G24/Area2)*(18*0.0254))/mu</f>
-        <v>674205.76358894468</v>
+        <v>674205.7635889448</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="7"/>
-        <v>0.53803235044911879</v>
+        <f t="shared" si="14"/>
+        <v>0.49197678125067434</v>
       </c>
     </row>
   </sheetData>

--- a/Lab_2/Lab2_Data.xlsx
+++ b/Lab_2/Lab2_Data.xlsx
@@ -1,22 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="9210" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Efficiency vs Re" sheetId="4" r:id="rId1"/>
+    <sheet name="Power Coefficient vs Re" sheetId="5" r:id="rId2"/>
+    <sheet name="Pressure Coefficient vs Re" sheetId="6" r:id="rId3"/>
+    <sheet name="Flow Coefficient vs Re" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Area2">Sheet1!$L$7</definedName>
+    <definedName name="beta">Sheet1!$L$8</definedName>
+    <definedName name="Cd">Sheet1!$L$12</definedName>
+    <definedName name="Cd2_">Sheet1!$L$13</definedName>
+    <definedName name="Cd3_">Sheet1!$L$14</definedName>
+    <definedName name="density">Sheet1!$L$4</definedName>
+    <definedName name="density_w">Sheet1!$L$5</definedName>
+    <definedName name="mu">Sheet1!$L$6</definedName>
+    <definedName name="N_error">Sheet1!$L$28</definedName>
+    <definedName name="P_static">Sheet1!$L$3</definedName>
+    <definedName name="Pressure_error">Sheet1!$L$30</definedName>
+    <definedName name="Re">Sheet1!$L$9</definedName>
+    <definedName name="Re2_">Sheet1!$L$10</definedName>
+    <definedName name="Re3_">Sheet1!$L$11</definedName>
+    <definedName name="Scale_error">Sheet1!$L$29</definedName>
+    <definedName name="temp">Sheet1!$L$2</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Test No</t>
   </si>
@@ -33,23 +55,244 @@
     <t xml:space="preserve">HP </t>
   </si>
   <si>
-    <t>PT1</t>
-  </si>
-  <si>
-    <t>PT2</t>
-  </si>
-  <si>
-    <t>Temp (F)</t>
-  </si>
-  <si>
-    <t>Pressure  (kPa)</t>
+    <t>PT1 (in)</t>
+  </si>
+  <si>
+    <t>PT2 (in)</t>
+  </si>
+  <si>
+    <t>Power Input (ft lb / sec)</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Static Pressure (Pa)</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Temp (K)</t>
+  </si>
+  <si>
+    <t>Air Density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>μ (kg/m s)</t>
+  </si>
+  <si>
+    <t>Power Output (W)</t>
+  </si>
+  <si>
+    <t>Power Input (W)</t>
+  </si>
+  <si>
+    <t>Q (m^3/s)</t>
+  </si>
+  <si>
+    <t>Water Density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>PT1 (m)</t>
+  </si>
+  <si>
+    <t>PT2 (m)</t>
+  </si>
+  <si>
+    <t>A2 (m^2)</t>
+  </si>
+  <si>
+    <t>ΔP1 (Pa)</t>
+  </si>
+  <si>
+    <t>ΔP2 (Pa)</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Cw</t>
+  </si>
+  <si>
+    <t>Cq</t>
+  </si>
+  <si>
+    <t>Re2</t>
+  </si>
+  <si>
+    <t>Re3</t>
+  </si>
+  <si>
+    <t>Cd2</t>
+  </si>
+  <si>
+    <t>Cd3</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Cp Uncertainty (±)</t>
+  </si>
+  <si>
+    <t>Cq Uncertainty (±)</t>
+  </si>
+  <si>
+    <t>η Uncertainty (±)</t>
+  </si>
+  <si>
+    <t>Re Uncertainty (±)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cw Uncertainty (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N Uncertainty (± RPM) </t>
+  </si>
+  <si>
+    <t>Scale Uncertainty (± lbf)</t>
+  </si>
+  <si>
+    <t>HP Uncertainty (±hp)</t>
+  </si>
+  <si>
+    <t>Q Uncertainty (±m^3/s)</t>
+  </si>
+  <si>
+    <t>PT1 Uncertainty (± in h20)</t>
+  </si>
+  <si>
+    <r>
+      <t>N (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±RPM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Scale Reading (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±lb)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pressure (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Temperature (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±F)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Diameter (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±in)</t>
+    </r>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Cw (±)</t>
+  </si>
+  <si>
+    <t>Cp (±)</t>
+  </si>
+  <si>
+    <t>Cq (±)</t>
+  </si>
+  <si>
+    <t>η  (±)</t>
+  </si>
+  <si>
+    <t>Re (±)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +300,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,16 +363,1468 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Compression</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Efficiency vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3551145133518158E-2"/>
+          <c:y val="1.4117647806135E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.4667144267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X = 2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$30:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.13850076361803615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22737781903208601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28063523803604706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.7635889448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3850076361803616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44741126561577843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49197678125067434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167271040"/>
+        <c:axId val="175870336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167271040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175870336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175870336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>η</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167271040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Power Coefficient </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10599017115383795"/>
+          <c:y val="1.6134454635582857E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.4667144267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7543283335532624E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6091592067524444E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.508425306132502E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X = 2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8267574364567045E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1772531751768856E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2888671592087111E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.7635889448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.6535148729134082E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3500785595087558E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2763790873205791E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146785792"/>
+        <c:axId val="146787712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146785792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146787712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146787712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cw</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146785792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Pressure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Coefficient vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5746268321346972E-2"/>
+          <c:y val="1.6134454635582857E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.4667144267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0454681102905851E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8392833088525802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1060301520279079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X = 2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2006825683492088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4228996183025299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10907606579332753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.7635889448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2006825683492088E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4082527505454927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10035247916010605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167236352"/>
+        <c:axId val="175979136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167236352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175979136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175979136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167236352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" u="sng">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Flow Coefficient</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" u="sng" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> vs. Reynold's Number for Each Plate Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" u="sng">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.550236548885598E-2"/>
+          <c:y val="1.4117647806135E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X = 3 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423520.4667144267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697222.79136540589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1277508665700813E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.268274624216409E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7280314880028292E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X =  2 Inches</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445631.8610974992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701735.60735360405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1769772748891545E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4394145820102442E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8097231466633044E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X = 1 Inch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216040.80447566588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466696.82399223128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>674205.7635889448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1769772748891545E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4351854501559688E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5725600564348408E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146975744"/>
+        <c:axId val="147461248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146975744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147461248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="147461248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Cq</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4634146903558552E-2"/>
+              <c:y val="0.41872848110783994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146975744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -180,6 +1902,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,6 +1937,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,43 +2113,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -442,14 +2180,53 @@
         <f>D2*(B2/4000)</f>
         <v>7.8875000000000001E-2</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2">
+        <f>K17*0.0254</f>
+        <v>8.8899999999999986E-3</v>
+      </c>
+      <c r="G2" s="2">
+        <f>L17*0.0254</f>
         <v>0</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5">
+        <f>(70-32)*(5/9)+273</f>
+        <v>294.11111111111109</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -467,14 +2244,62 @@
         <f t="shared" ref="E3:E10" si="0">D3*(B3/4000)</f>
         <v>0.52674999999999994</v>
       </c>
-      <c r="F3" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="2">
+        <f>K18*0.0254</f>
+        <v>3.5559999999999994E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>L18*0.0254</f>
         <v>0</v>
       </c>
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100250</v>
+      </c>
+      <c r="N3" s="8">
+        <f>N_error/B2</f>
+        <v>7.9239302694136295E-4</v>
+      </c>
+      <c r="O3" s="2">
+        <f>Scale_error/D2</f>
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="2">
+        <f>E2*(N3+O3)</f>
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>G16*((0.05/9)*2*R3^0.5)</f>
+        <v>4.7597054098993171E-4</v>
+      </c>
+      <c r="R3" s="1">
+        <f>Pressure_error*K17</f>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="S3" s="6">
+        <f>B27*(P3+R3*2+N3*3+(0.5/18)*5)</f>
+        <v>6.9160760347446702E-5</v>
+      </c>
+      <c r="T3" s="2">
+        <f>C27*(R3+R3+N3*2+(0.05/18)*2)</f>
+        <v>3.3903877457548714E-3</v>
+      </c>
+      <c r="U3" s="8">
+        <f>D27*(Q3+N3+(0.05/9)*3)</f>
+        <v>9.1966366827420304E-4</v>
+      </c>
+      <c r="V3" s="9">
+        <f>F27*(2*(P3/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <f>E27*(Q3+(0.05/9)*2)</f>
+        <v>2503.2824416451367</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A10" si="1">A3+1</f>
         <v>3</v>
@@ -492,14 +2317,63 @@
         <f t="shared" si="0"/>
         <v>1.7774249999999998</v>
       </c>
-      <c r="F4" s="1">
-        <v>3.85</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2">
+        <f>K19*0.0254</f>
+        <v>9.7790000000000002E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f>L19*0.0254</f>
         <v>0</v>
       </c>
+      <c r="K4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2">
+        <f>P_static/(287*temp)</f>
+        <v>1.1876570543998928</v>
+      </c>
+      <c r="N4" s="8">
+        <f>N_error/B3</f>
+        <v>4.1528239202657808E-4</v>
+      </c>
+      <c r="O4" s="2">
+        <f>Scale_error/D3</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P11" si="2">E3*(N4+O4)</f>
+        <v>1.5268749999999999E-2</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" ref="Q4:Q11" si="3">G17*((0.05/9)*2*R4^0.5)</f>
+        <v>1.8661591836932796E-3</v>
+      </c>
+      <c r="R4" s="1">
+        <f>Pressure_error*K18</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" ref="S4:S11" si="4">B28*(P4+R4*2+N4*3+(0.5/18)*5)</f>
+        <v>1.0661582114381487E-4</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T11" si="5">C28*(R4+R4+N4*2+(0.05/18)*2)</f>
+        <v>1.2939483901655885E-2</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" ref="U4:U11" si="6">D28*(Q4+N4+(0.05/9)*3)</f>
+        <v>9.9823837830270712E-4</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" ref="V4:V11" si="7">F28*(2*(P4/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" ref="W4:W11" si="8">E28*(Q4+(0.05/9)*2)</f>
+        <v>5496.139571934822</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -517,14 +2391,62 @@
         <f t="shared" si="0"/>
         <v>7.8125E-2</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.1</v>
+      <c r="F5" s="2">
+        <f>K20*0.0254</f>
+        <v>8.8899999999999986E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <f>L20*0.0254</f>
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="8">
+        <f>N_error/B4</f>
+        <v>2.7427317608337906E-4</v>
+      </c>
+      <c r="O5" s="2">
+        <f>Scale_error/D4</f>
+        <v>1.2820512820512822E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3275000000000001E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="3"/>
+        <v>5.094624807284274E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f>Pressure_error*K19</f>
+        <v>0.1925</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9225704352349431E-4</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1468827384014181E-2</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2622040817131862E-3</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="8"/>
+        <v>11299.008433154251</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -542,14 +2464,63 @@
         <f t="shared" si="0"/>
         <v>0.49080000000000007</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.55</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
+      <c r="F6" s="2">
+        <f>K21*0.0254</f>
+        <v>3.9370000000000002E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f>L21*0.0254</f>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <f>1.983*10^-5</f>
+        <v>1.9830000000000002E-5</v>
+      </c>
+      <c r="N6" s="8">
+        <f>N_error/B5</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O6" s="2">
+        <f>Scale_error/D5</f>
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8750000000000001E-3</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7597054098993171E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <f>Pressure_error*K20</f>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="4"/>
+        <v>7.0475053133234187E-5</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4570432960352106E-3</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="6"/>
+        <v>9.2888625075618803E-4</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="7"/>
+        <v>2.1813870269840695E-5</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="8"/>
+        <v>2503.2824416451367</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -567,14 +2538,63 @@
         <f t="shared" si="0"/>
         <v>1.6280999999999999</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.3</v>
+      <c r="F7" s="2">
+        <f>K22*0.0254</f>
+        <v>9.9059999999999995E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f>L22*0.0254</f>
+        <v>3.3020000000000001E-2</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3">
+        <f>((PI()*9^2)/4)*0.00064516</f>
+        <v>4.1043305806897315E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <f>N_error/B6</f>
+        <v>4.0749796251018743E-4</v>
+      </c>
+      <c r="O7" s="2">
+        <f>Scale_error/D6</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5537500000000003E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>2.0661048105175598E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <f>Pressure_error*K21</f>
+        <v>7.7500000000000013E-2</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="4"/>
+        <v>9.8701014916653093E-5</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5205785079515881E-2</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0411186069387885E-3</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>7.0657657264220735E-5</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="8"/>
+        <v>5872.1872552389832</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -592,14 +2612,62 @@
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.2</v>
+      <c r="F8" s="2">
+        <f>K23*0.0254</f>
+        <v>8.8899999999999986E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <f>L23*0.0254</f>
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="8">
+        <f>N_error/B7</f>
+        <v>2.7639579878385847E-4</v>
+      </c>
+      <c r="O8" s="2">
+        <f>Scale_error/D7</f>
+        <v>1.388888888888889E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.30625E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="3"/>
+        <v>5.1607887658204326E-3</v>
+      </c>
+      <c r="R8" s="1">
+        <f>Pressure_error*K22</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="4"/>
+        <v>1.818021883592993E-4</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="5"/>
+        <v>4.3205940135360291E-2</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2841725612871707E-3</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="7"/>
+        <v>1.2944300354412672E-4</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="8"/>
+        <v>11418.571542935591</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -617,14 +2685,62 @@
         <f t="shared" si="0"/>
         <v>0.41795000000000004</v>
       </c>
-      <c r="F9" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.8</v>
+      <c r="F9" s="2">
+        <f>K24*0.0254</f>
+        <v>4.3179999999999996E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f>L24*0.0254</f>
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9">
+        <v>210000</v>
+      </c>
+      <c r="N9" s="8">
+        <f>N_error/B8</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O9" s="2">
+        <f>Scale_error/D8</f>
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8250000000000004E-3</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7597054098993171E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <f>Pressure_error*K23</f>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4091183869210377E-5</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4570432960352106E-3</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="6"/>
+        <v>9.2888625075618803E-4</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="7"/>
+        <v>2.1675369506222661E-4</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="8"/>
+        <v>2503.2824416451367</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -642,27 +2758,855 @@
         <f t="shared" si="0"/>
         <v>1.1325000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
+        <f>K25*0.0254</f>
+        <v>9.1439999999999994E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <f>L25*0.0254</f>
+        <v>4.1909999999999996E-2</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1">
+        <v>430000</v>
+      </c>
+      <c r="N10" s="8">
+        <f>N_error/B9</f>
+        <v>3.8880248833592535E-4</v>
+      </c>
+      <c r="O10" s="2">
+        <f>Scale_error/D9</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6237500000000002E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="3"/>
+        <v>2.2660504373418402E-3</v>
+      </c>
+      <c r="R10" s="1">
+        <f>Pressure_error*K24</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="4"/>
+        <v>7.6681370483344923E-5</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6589869425897085E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0501604216321394E-3</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="7"/>
+        <v>1.4529680850872408E-4</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="8"/>
+        <v>6243.078808693991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="1">
+        <v>690000</v>
+      </c>
+      <c r="N11" s="8">
+        <f>N_error/B10</f>
+        <v>2.7593818984547461E-4</v>
+      </c>
+      <c r="O11" s="2">
+        <f>Scale_error/D10</f>
+        <v>0.02</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2962500000000004E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7638050146034767E-3</v>
+      </c>
+      <c r="R11" s="1">
+        <f>Pressure_error*K25</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1898160081301375E-4</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="5"/>
+        <v>3.6739788433641771E-2</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2096027261638183E-3</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="7"/>
+        <v>2.2594033678937224E-4</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="8"/>
+        <v>10702.959948447857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
+        <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
+        <v>0.63036487877356873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="3">
+        <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re2_)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
+        <v>0.61787500816457053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="3">
+        <f>0.5959+0.0312*beta^2.1-0.184*beta^8+0.029*beta^2.5*(10^6/Re3_)+(0.09*1*beta^4/(1-beta^5))-0.037*0.5*beta^3</f>
+        <v>0.61338260411153156</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <f>0.05/9</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="6">
+        <f>AVERAGE(S$3:S$11)</f>
+        <v>1.031962262877235E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.8875000000000001E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16*550</f>
+        <v>43.381250000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16*1.355818</f>
+        <v>58.817079612500002</v>
+      </c>
+      <c r="E16" s="5">
+        <f>9.81*F2*density_w</f>
+        <v>87.210899999999995</v>
+      </c>
+      <c r="F16" s="5">
+        <f>9.81*G2*density_w</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f>Cd*Area2*SQRT((2*E16)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.3238199184477174</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" s="2">
+        <f>AVERAGE(T3:T11)</f>
+        <v>1.9606018744212268E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>A16+1</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.52674999999999994</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:C24" si="9">B17*550</f>
+        <v>289.71249999999998</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:D24" si="10">C17*1.355818</f>
+        <v>392.79742232499996</v>
+      </c>
+      <c r="E17" s="5">
+        <f>9.81*F3*density_w</f>
+        <v>348.84359999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f>9.81*G3*density_w</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>Cd2_*Area2*SQRT((2*E17)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.63480768517436414</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:H24" si="11">G17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="8">
+        <f>AVERAGE(U3:U11)</f>
+        <v>1.0692147717582656E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" ref="A18:A24" si="12">A17+1</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.7774249999999998</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="9"/>
+        <v>977.5837499999999</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="10"/>
+        <v>1325.4256447574999</v>
+      </c>
+      <c r="E18" s="5">
+        <f>9.81*F4*density_w</f>
+        <v>959.31990000000008</v>
+      </c>
+      <c r="F18" s="5">
+        <f>9.81*G4*density_w</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f>Cd3_*Area2*SQRT((2*E18)/density)*SQRT(1/(1-beta^4))</f>
+        <v>1.0450554837906378</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="7">
+        <f>AVERAGE(V3:V11)</f>
+        <v>8.9989485715390118E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="9"/>
+        <v>42.96875</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="10"/>
+        <v>58.257804687499998</v>
+      </c>
+      <c r="E19" s="5">
+        <f>9.81*F5*density_w</f>
+        <v>87.210899999999995</v>
+      </c>
+      <c r="F19" s="5">
+        <f>9.81*G5*density_w</f>
+        <v>24.917400000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <f>Cd*Area2*SQRT((2*E19)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.3238199184477174</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="11"/>
+        <v>8.0687504359291555</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="9">
+        <f>AVERAGE(W3:W11)</f>
+        <v>6504.6436539267679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.49080000000000007</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="9"/>
+        <v>269.94000000000005</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="10"/>
+        <v>365.98951092000004</v>
+      </c>
+      <c r="E20" s="5">
+        <f>9.81*F6*density_w</f>
+        <v>386.21970000000005</v>
+      </c>
+      <c r="F20" s="5">
+        <f>9.81*G6*density_w</f>
+        <v>124.587</v>
+      </c>
+      <c r="G20" s="4">
+        <f>Cd2_*Area2*SQRT((2*E20)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.66795008132156197</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="11"/>
+        <v>83.21789678160944</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.6280999999999999</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="9"/>
+        <v>895.45499999999993</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="10"/>
+        <v>1214.07400719</v>
+      </c>
+      <c r="E21" s="5">
+        <f>9.81*F7*density_w</f>
+        <v>971.7786000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <f>9.81*G7*density_w</f>
+        <v>323.92619999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <f>Cd3_*Area2*SQRT((2*E21)/density)*SQRT(1/(1-beta^4))</f>
+        <v>1.0518196675697835</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="11"/>
+        <v>340.71194800114318</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="9"/>
+        <v>8.59375</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="10"/>
+        <v>11.651560937499999</v>
+      </c>
+      <c r="E22" s="5">
+        <f>9.81*F8*density_w</f>
+        <v>87.210899999999995</v>
+      </c>
+      <c r="F22" s="5">
+        <f>9.81*G8*density_w</f>
+        <v>49.834800000000008</v>
+      </c>
+      <c r="G22" s="4">
+        <f>Cd*Area2*SQRT((2*E22)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.3238199184477174</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="11"/>
+        <v>16.137500871858311</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.41795000000000004</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="9"/>
+        <v>229.87250000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="10"/>
+        <v>311.66527320500006</v>
+      </c>
+      <c r="E23" s="5">
+        <f>9.81*F9*density_w</f>
+        <v>423.59579999999994</v>
+      </c>
+      <c r="F23" s="5">
+        <f>9.81*G9*density_w</f>
+        <v>199.33920000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <f>Cd2_*Area2*SQRT((2*E23)/density)*SQRT(1/(1-beta^4))</f>
+        <v>0.69952399895824002</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="11"/>
+        <v>139.44255433313643</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.1325000000000001</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="9"/>
+        <v>622.875</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="10"/>
+        <v>844.50513675000002</v>
+      </c>
+      <c r="E24" s="5">
+        <f>9.81*F10*density_w</f>
+        <v>897.02639999999997</v>
+      </c>
+      <c r="F24" s="5">
+        <f>9.81*G10*density_w</f>
+        <v>411.13709999999998</v>
+      </c>
+      <c r="G24" s="4">
+        <f>Cd3_*Area2*SQRT((2*E24)/density)*SQRT(1/(1-beta^4))</f>
+        <v>1.0105556490229795</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="11"/>
+        <v>415.47691892792557</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
         <v>3.6</v>
       </c>
-      <c r="G10" s="1">
+      <c r="L25" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <f>D16/(density*((2*PI()*B2)/60)^3*(18*0.0254))</f>
+        <v>3.7543283335532624E-4</v>
+      </c>
+      <c r="C27" s="2">
+        <f>E16/(density*((2*PI()*B2)/60)^2*(18*0.0254)^2)</f>
+        <v>8.0454681102905851E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f>G16/(((2*PI()*B2)/60)*(18*0.0254)^3)</f>
+        <v>5.1277508665700813E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <f>(density*(G16/Area2)*(18*0.0254))/mu</f>
+        <v>216040.80447566588</v>
+      </c>
+      <c r="F27" s="1">
+        <f>H16/D16</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>3</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>A27+1</f>
+        <v>2</v>
+      </c>
+      <c r="B28" s="7">
+        <f>D17/(density*((2*PI()*B3)/60)^3*(18*0.0254))</f>
+        <v>3.6091592067524444E-4</v>
+      </c>
+      <c r="C28" s="2">
+        <f>E17/(density*((2*PI()*B3)/60)^2*(18*0.0254)^2)</f>
+        <v>8.8392833088525802E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D35" si="13">G17/(((2*PI()*B3)/60)*(18*0.0254)^3)</f>
+        <v>5.268274624216409E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <f>(density*(G17/Area2)*(18*0.0254))/mu</f>
+        <v>423520.4667144267</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F35" si="14">H17/D17</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" ref="A29:A35" si="15">A28+1</f>
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <f>D18/(density*((2*PI()*B4)/60)^3*(18*0.0254))</f>
+        <v>3.508425306132502E-4</v>
+      </c>
+      <c r="C29" s="2">
+        <f>E18/(density*((2*PI()*B4)/60)^2*(18*0.0254)^2)</f>
+        <v>0.1060301520279079</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="13"/>
+        <v>5.7280314880028292E-2</v>
+      </c>
+      <c r="E29" s="9">
+        <f>(density*(G18/Area2)*(18*0.0254))/mu</f>
+        <v>697222.79136540589</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="7">
+        <f>D19/(density*((2*PI()*B5)/60)^3*(18*0.0254))</f>
+        <v>3.8267574364567045E-4</v>
+      </c>
+      <c r="C30" s="2">
+        <f>E19/(density*((2*PI()*B5)/60)^2*(18*0.0254)^2)</f>
+        <v>8.2006825683492088E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="13"/>
+        <v>5.1769772748891545E-2</v>
+      </c>
+      <c r="E30" s="9">
+        <f>(density*(G19/Area2)*(18*0.0254))/mu</f>
+        <v>216040.80447566588</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="14"/>
+        <v>0.13850076361803615</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="7">
+        <f>D20/(density*((2*PI()*B6)/60)^3*(18*0.0254))</f>
+        <v>3.1772531751768856E-4</v>
+      </c>
+      <c r="C31" s="2">
+        <f>E20/(density*((2*PI()*B6)/60)^2*(18*0.0254)^2)</f>
+        <v>9.4228996183025299E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="13"/>
+        <v>5.4394145820102442E-2</v>
+      </c>
+      <c r="E31" s="9">
+        <f>(density*(G20/Area2)*(18*0.0254))/mu</f>
+        <v>445631.8610974992</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="14"/>
+        <v>0.22737781903208601</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="7">
+        <f>D21/(density*((2*PI()*B7)/60)^3*(18*0.0254))</f>
+        <v>3.2888671592087111E-4</v>
+      </c>
+      <c r="C32" s="2">
+        <f>E21/(density*((2*PI()*B7)/60)^2*(18*0.0254)^2)</f>
+        <v>0.10907606579332753</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="13"/>
+        <v>5.8097231466633044E-2</v>
+      </c>
+      <c r="E32" s="9">
+        <f>(density*(G21/Area2)*(18*0.0254))/mu</f>
+        <v>701735.60735360405</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="14"/>
+        <v>0.28063523803604706</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>70</v>
+      <c r="B33" s="7">
+        <f>D22/(density*((2*PI()*B8)/60)^3*(18*0.0254))</f>
+        <v>7.6535148729134082E-5</v>
+      </c>
+      <c r="C33" s="2">
+        <f>E22/(density*((2*PI()*B8)/60)^2*(18*0.0254)^2)</f>
+        <v>8.2006825683492088E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="13"/>
+        <v>5.1769772748891545E-2</v>
+      </c>
+      <c r="E33" s="9">
+        <f>(density*(G22/Area2)*(18*0.0254))/mu</f>
+        <v>216040.80447566588</v>
+      </c>
+      <c r="F33" s="3">
+        <f>H22/D22</f>
+        <v>1.3850076361803616</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>100.25</v>
+      <c r="B34" s="7">
+        <f>D23/(density*((2*PI()*B9)/60)^3*(18*0.0254))</f>
+        <v>2.3500785595087558E-4</v>
+      </c>
+      <c r="C34" s="2">
+        <f>E23/(density*((2*PI()*B9)/60)^2*(18*0.0254)^2)</f>
+        <v>9.4082527505454927E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="13"/>
+        <v>5.4351854501559688E-2</v>
+      </c>
+      <c r="E34" s="9">
+        <f>(density*(G23/Area2)*(18*0.0254))/mu</f>
+        <v>466696.82399223128</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="14"/>
+        <v>0.44741126561577843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="7">
+        <f>D24/(density*((2*PI()*B10)/60)^3*(18*0.0254))</f>
+        <v>2.2763790873205791E-4</v>
+      </c>
+      <c r="C35" s="2">
+        <f>E24/(density*((2*PI()*B10)/60)^2*(18*0.0254)^2)</f>
+        <v>0.10035247916010605</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="13"/>
+        <v>5.5725600564348408E-2</v>
+      </c>
+      <c r="E35" s="9">
+        <f>(density*(G24/Area2)*(18*0.0254))/mu</f>
+        <v>674205.7635889448</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="14"/>
+        <v>0.49197678125067434</v>
       </c>
     </row>
   </sheetData>
@@ -671,24 +3615,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab_2/Lab2_Data.xlsx
+++ b/Lab_2/Lab2_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="9210" activeTab="4"/>
@@ -34,6 +34,7 @@
     <definedName name="temp">Sheet1!$L$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -283,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -292,7 +293,7 @@
     <numFmt numFmtId="168" formatCode="0.0000000"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,17 +396,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -442,17 +433,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.3551145133518158E-2"/>
-          <c:y val="1.4117647806135E-2"/>
+          <c:y val="1.4117647806134998E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -495,7 +483,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -539,7 +526,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -583,25 +569,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="77695232"/>
-        <c:axId val="96611712"/>
+        <c:dLbls/>
+        <c:axId val="64612608"/>
+        <c:axId val="76547968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77695232"/>
+        <c:axId val="64612608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -622,22 +599,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96611712"/>
+        <c:crossAx val="76547968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96611712"/>
+        <c:axId val="76547968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -668,23 +641,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.4634146903558552E-2"/>
-              <c:y val="0.41872848110783994"/>
+              <c:y val="0.41872848110784006"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77695232"/>
+        <c:crossAx val="64612608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
           <a:solidFill>
@@ -708,24 +677,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -761,18 +719,15 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10599017115383795"/>
-          <c:y val="1.6134454635582857E-2"/>
+          <c:x val="0.10599017115383798"/>
+          <c:y val="1.613445463558286E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -818,7 +773,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -862,7 +816,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -906,25 +859,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="144166272"/>
-        <c:axId val="146934016"/>
+        <c:dLbls/>
+        <c:axId val="76690560"/>
+        <c:axId val="76692480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144166272"/>
+        <c:axId val="76690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -945,22 +889,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146934016"/>
+        <c:crossAx val="76692480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146934016"/>
+        <c:axId val="76692480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -987,23 +927,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.4634146903558552E-2"/>
-              <c:y val="0.41872848110783994"/>
+              <c:y val="0.41872848110784006"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144166272"/>
+        <c:crossAx val="76690560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
           <a:solidFill>
@@ -1027,24 +963,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1080,18 +1005,15 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5746268321346972E-2"/>
-          <c:y val="1.6134454635582857E-2"/>
+          <c:x val="9.5746268321347E-2"/>
+          <c:y val="1.613445463558286E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -1134,7 +1056,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1178,7 +1099,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1222,25 +1142,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="153324160"/>
-        <c:axId val="167235584"/>
+        <c:dLbls/>
+        <c:axId val="76118272"/>
+        <c:axId val="76124544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153324160"/>
+        <c:axId val="76118272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1261,22 +1172,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167235584"/>
+        <c:crossAx val="76124544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167235584"/>
+        <c:axId val="76124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1303,23 +1210,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.4634146903558552E-2"/>
-              <c:y val="0.41872848110783994"/>
+              <c:y val="0.41872848110784006"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153324160"/>
+        <c:crossAx val="76118272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
           <a:solidFill>
@@ -1343,24 +1246,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1396,18 +1288,15 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.550236548885598E-2"/>
-          <c:y val="1.4117647806135E-2"/>
+          <c:x val="8.5502365488856022E-2"/>
+          <c:y val="1.4117647806134998E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -1453,7 +1342,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1497,7 +1385,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1541,25 +1428,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="176029056"/>
-        <c:axId val="177715072"/>
+        <c:dLbls/>
+        <c:axId val="77680000"/>
+        <c:axId val="77698560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176029056"/>
+        <c:axId val="77680000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1580,22 +1458,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177715072"/>
+        <c:crossAx val="77698560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177715072"/>
+        <c:axId val="77698560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1622,23 +1496,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.4634146903558552E-2"/>
-              <c:y val="0.41872848110783994"/>
+              <c:y val="0.41872848110784006"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176029056"/>
+        <c:crossAx val="77680000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
           <a:solidFill>
@@ -1662,7 +1532,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -1894,7 +1763,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1929,7 +1797,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2105,14 +1972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -2132,7 +1999,7 @@
     <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2218,7 +2085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -2291,7 +2158,7 @@
         <v>2503.2824416451367</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A10" si="6">A3+1</f>
         <v>3</v>
@@ -2365,7 +2232,7 @@
         <v>5496.139571934822</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -2438,7 +2305,7 @@
         <v>11299.008433154251</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -2512,7 +2379,7 @@
         <v>2503.2824416451367</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -2586,7 +2453,7 @@
         <v>5872.1872552389832</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -2659,7 +2526,7 @@
         <v>11418.571542935591</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -2732,7 +2599,7 @@
         <v>2503.2824416451367</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -2805,7 +2672,7 @@
         <v>6243.078808693991</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="K11" s="11" t="s">
         <v>28</v>
       </c>
@@ -2853,7 +2720,7 @@
         <v>10702.959948447857</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="K12" s="10" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +2729,7 @@
         <v>0.63036487877356873</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="K13" s="10" t="s">
         <v>29</v>
       </c>
@@ -2871,7 +2738,7 @@
         <v>0.61787500816457053</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="K14" s="10" t="s">
         <v>30</v>
       </c>
@@ -2893,7 +2760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +2793,7 @@
         <v>1.031962262877235E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2971,7 +2838,7 @@
         <v>1.9606018744212268E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <f>A16+1</f>
         <v>2</v>
@@ -3017,7 +2884,7 @@
         <v>1.0692147717582656E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <f t="shared" ref="A18:A24" si="18">A17+1</f>
         <v>3</v>
@@ -3063,7 +2930,7 @@
         <v>8.9989485715390118E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -3109,7 +2976,7 @@
         <v>6504.6436539267679</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <f t="shared" si="18"/>
         <v>5</v>
@@ -3148,7 +3015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <f t="shared" si="18"/>
         <v>6</v>
@@ -3187,7 +3054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <f t="shared" si="18"/>
         <v>7</v>
@@ -3226,7 +3093,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <f t="shared" si="18"/>
         <v>8</v>
@@ -3265,7 +3132,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -3304,7 +3171,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="K25" s="1">
         <v>3.6</v>
       </c>
@@ -3312,7 +3179,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="10" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -3363,7 +3230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <f>A27+1</f>
         <v>2</v>
@@ -3395,7 +3262,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <f t="shared" ref="A29:A35" si="24">A28+1</f>
         <v>3</v>
@@ -3427,7 +3294,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <f t="shared" si="24"/>
         <v>4</v>
@@ -3459,7 +3326,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <f t="shared" si="24"/>
         <v>5</v>
@@ -3491,7 +3358,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <f t="shared" si="24"/>
         <v>6</v>
@@ -3523,7 +3390,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <f t="shared" si="24"/>
         <v>7</v>
@@ -3549,7 +3416,7 @@
         <v>1.3850076361803616</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <f t="shared" si="24"/>
         <v>8</v>
@@ -3575,7 +3442,7 @@
         <v>0.44741126561577843</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <f t="shared" si="24"/>
         <v>9</v>
@@ -3607,24 +3474,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
